--- a/Viswan_2018_unnormalized.xlsx
+++ b/Viswan_2018_unnormalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Viswan_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0627799-5413-4FE3-A39A-E5AC45A2344E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C5C1F4-FD7B-4D7F-8302-9D59FAEB0509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2220" windowWidth="28800" windowHeight="15472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="13" r:id="rId1"/>
@@ -1895,36 +1895,24 @@
     <t>K132</t>
   </si>
   <si>
-    <t>kf_R85</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g__DAGXIP3XCa_PLC_g_1</t>
   </si>
   <si>
     <t>K133</t>
   </si>
   <si>
-    <t>kr_R85</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g__DAGXIP3XCa_PLC_g_2</t>
   </si>
   <si>
     <t>K134</t>
   </si>
   <si>
-    <t>kf_R86</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g_p__DAGXIP3XCa_PLC_g_p_1</t>
   </si>
   <si>
     <t>K135</t>
   </si>
   <si>
-    <t>kr_R86</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g_p__DAGXIP3XCa_PLC_g_p_2</t>
   </si>
   <si>
@@ -3173,9 +3161,6 @@
     <t>ReactionFlux84</t>
   </si>
   <si>
-    <t>(kf_R85*PIP2*Ca_PLC_g/(kr_R85+PIP2))</t>
-  </si>
-  <si>
     <t>Henri-Michaelis-Menten</t>
   </si>
   <si>
@@ -3188,9 +3173,6 @@
     <t>ReactionFlux85</t>
   </si>
   <si>
-    <t>(kf_R86*PIP2*Ca_PLC_g_p/(kr_R86+PIP2))</t>
-  </si>
-  <si>
     <t>PIP2 + Ca_PLC_g_p &lt;=&gt; DAG + IP3 + Ca_PLC_g_p</t>
   </si>
   <si>
@@ -3693,6 +3675,24 @@
   </si>
   <si>
     <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1I' TableTitle='Viswan_2018 E1I' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>Vmax_R85</t>
+  </si>
+  <si>
+    <t>Kcat_R85</t>
+  </si>
+  <si>
+    <t>Vmax_R86</t>
+  </si>
+  <si>
+    <t>Kcat_R86</t>
+  </si>
+  <si>
+    <t>(Vmax_R85*PIP2*Ca_PLC_g/(Kcat_R85+PIP2))</t>
+  </si>
+  <si>
+    <t>(Vmax_R86*PIP2*Ca_PLC_g_p/(Kcat_R86+PIP2))</t>
   </si>
 </sst>
 </file>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4083,57 +4083,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C3" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C4" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C5" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B6" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C6" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B7" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C7" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4164,15 +4164,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B4">
         <v>2100</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4220,18 +4220,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="D2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B3">
         <v>3600</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B4">
         <v>3900</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B5">
         <v>5400</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B6">
         <v>7200</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B7">
         <v>14400</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B8">
         <v>36000</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4341,15 +4341,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B4">
         <v>3600</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4408,18 +4408,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D3" s="2">
         <v>1.0000000000000001E-15</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4497,7 +4497,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4561,7 +4561,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D8" s="1">
         <v>2.0000000000063099E-2</v>
@@ -4689,7 +4689,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4721,7 +4721,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -4843,13 +4843,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4875,13 +4875,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D15" s="1">
         <v>0.399999999999685</v>
@@ -4913,7 +4913,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D20" s="1">
         <v>30.0007914522125</v>
@@ -5073,7 +5073,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D24" s="1">
         <v>0.79999999999936899</v>
@@ -5201,7 +5201,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D31" s="1">
         <v>0.73000395726099898</v>
@@ -5425,7 +5425,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D32" s="1">
         <v>6.99999999999054</v>
@@ -5457,7 +5457,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D34" s="1">
         <v>0.20000000000063098</v>
@@ -5521,7 +5521,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D36" s="1">
         <v>0.18000791452300802</v>
@@ -5585,7 +5585,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D37" s="1">
         <v>0.36000000000050497</v>
@@ -5617,7 +5617,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -5745,7 +5745,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D44" s="1">
         <v>0.1</v>
@@ -5841,7 +5841,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D47" s="1">
         <v>0.5</v>
@@ -5937,7 +5937,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D49" s="1">
         <v>2.0000000000063099E-2</v>
@@ -6001,7 +6001,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D52" s="1">
         <v>0.16666402849294001</v>
@@ -6097,7 +6097,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>114</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D57" s="1">
         <v>0.50000791452275606</v>
@@ -6257,7 +6257,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -6353,7 +6353,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D63" s="1">
         <v>0.1</v>
@@ -6449,7 +6449,7 @@
         <v>134</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>136</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D65" s="1">
         <v>0.82000791452250299</v>
@@ -6513,7 +6513,7 @@
         <v>138</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>140</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>142</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -6609,7 +6609,7 @@
         <v>144</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D69" s="1">
         <v>7.00023743568898E-4</v>
@@ -6641,7 +6641,7 @@
         <v>146</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D70" s="1">
         <v>2.0000000000063099E-2</v>
@@ -6673,7 +6673,7 @@
         <v>148</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D71" s="1">
         <v>0.26000791452294497</v>
@@ -6705,7 +6705,7 @@
         <v>150</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D72" s="1">
         <v>7.9999999999936899E-2</v>
@@ -6737,7 +6737,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>156</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -6833,7 +6833,7 @@
         <v>158</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>160</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>164</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>168</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -7025,7 +7025,7 @@
         <v>170</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>172</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>174</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>176</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>178</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>180</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>182</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>184</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -7281,7 +7281,7 @@
         <v>186</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>188</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>190</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>194</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>196</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>198</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -7505,7 +7505,7 @@
         <v>200</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>202</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>204</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>206</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -7633,7 +7633,7 @@
         <v>208</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>212</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>214</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -7762,8 +7762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135:B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -7799,10 +7799,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>215</v>
@@ -7828,13 +7828,13 @@
         <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D3" s="1">
         <v>-0.22185001992911629</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F3" s="1">
         <f>LOG(G3,2)</f>
@@ -7869,7 +7869,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F67" si="1">LOG(G4,2)</f>
@@ -7898,13 +7898,13 @@
         <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D5" s="1">
         <v>-2.0969181425324788</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
@@ -7939,7 +7939,7 @@
         <v>0.93625228285283602</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
@@ -7974,7 +7974,7 @@
         <v>0.10397466938638814</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
@@ -8009,7 +8009,7 @@
         <v>0.54439054333774783</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
@@ -8079,7 +8079,7 @@
         <v>-1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
@@ -8108,13 +8108,13 @@
         <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D11" s="1">
         <v>-2.9208154515160163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
@@ -8149,7 +8149,7 @@
         <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
@@ -8184,7 +8184,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
@@ -8219,7 +8219,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
@@ -8289,7 +8289,7 @@
         <v>1.6989700043360187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
@@ -8318,13 +8318,13 @@
         <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D17" s="1">
         <v>-3.9208154515160163</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
@@ -8359,7 +8359,7 @@
         <v>-1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
@@ -8388,13 +8388,13 @@
         <v>269</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D19" s="1">
         <v>-3.2218500199291165</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
@@ -8429,7 +8429,7 @@
         <v>-1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
@@ -8458,13 +8458,13 @@
         <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D21" s="1">
         <v>-1.7447318137356149</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
@@ -8499,7 +8499,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
@@ -8528,13 +8528,13 @@
         <v>281</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D23" s="1">
         <v>-1.2703118420192648E-6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
@@ -8569,7 +8569,7 @@
         <v>-1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
@@ -8598,13 +8598,13 @@
         <v>287</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D25" s="1">
         <v>-2.5228800155930973</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
@@ -8639,7 +8639,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
@@ -8674,7 +8674,7 @@
         <v>-0.3979400086720376</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
@@ -8703,13 +8703,13 @@
         <v>296</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D28" s="1">
         <v>0.77814998007088365</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
@@ -8744,7 +8744,7 @@
         <v>-1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
@@ -8779,7 +8779,7 @@
         <v>-0.769551078621726</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
@@ -8808,13 +8808,13 @@
         <v>305</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D31" s="1">
         <v>0.47711998440690245</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
@@ -8884,7 +8884,7 @@
         <v>0.3979400086720376</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
@@ -8919,7 +8919,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
@@ -8948,13 +8948,13 @@
         <v>317</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D35" s="1">
         <v>1.4771199844069025</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
@@ -9018,13 +9018,13 @@
         <v>323</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D37" s="1">
         <v>0.99996815115037152</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
@@ -9059,7 +9059,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
@@ -9129,7 +9129,7 @@
         <v>-4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
@@ -9164,7 +9164,7 @@
         <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
@@ -9228,13 +9228,13 @@
         <v>341</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D43" s="1">
         <v>0.62324932658914622</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="1"/>
@@ -9269,7 +9269,7 @@
         <v>-0.6020599913279624</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
@@ -9304,7 +9304,7 @@
         <v>-2.6989700043360187</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
@@ -9339,7 +9339,7 @@
         <v>-3.4814860601221125</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
@@ -9374,7 +9374,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="1"/>
@@ -9403,13 +9403,13 @@
         <v>356</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D48" s="1">
         <v>-0.30104772826912196</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
@@ -9444,7 +9444,7 @@
         <v>-1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
@@ -9473,13 +9473,13 @@
         <v>362</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D50" s="1">
         <v>-1.6020557743488411</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="1"/>
@@ -9514,7 +9514,7 @@
         <v>-1.7746907182741372</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
@@ -9549,7 +9549,7 @@
         <v>-3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
@@ -9578,13 +9578,13 @@
         <v>371</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D53" s="1">
         <v>-1.6020557743488411</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
@@ -9619,7 +9619,7 @@
         <v>-1.7746907182741372</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
@@ -9648,13 +9648,13 @@
         <v>377</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D55" s="1">
         <v>-1.2703118420192648E-6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
@@ -9718,13 +9718,13 @@
         <v>383</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D57" s="1">
         <v>2.2552681862643853</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
@@ -9759,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
@@ -9788,13 +9788,13 @@
         <v>389</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D59" s="1">
         <v>1.0791845484839835</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
@@ -9829,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
@@ -9864,7 +9864,7 @@
         <v>-1.3010299956639813</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
@@ -9899,7 +9899,7 @@
         <v>-1.1549019599857431</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
@@ -9928,13 +9928,13 @@
         <v>401</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D63" s="1">
         <v>-2.2375193560962289E-2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
@@ -9969,7 +9969,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
@@ -10004,7 +10004,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
@@ -10033,13 +10033,13 @@
         <v>410</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D66" s="1">
         <v>0.75255237739920378</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
@@ -10074,7 +10074,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
@@ -10109,7 +10109,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F131" si="3">LOG(G68,2)</f>
@@ -10138,13 +10138,13 @@
         <v>419</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D69" s="1">
         <v>0.75255237739920378</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="3"/>
@@ -10179,7 +10179,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
@@ -10214,7 +10214,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
@@ -10243,13 +10243,13 @@
         <v>428</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D72" s="1">
         <v>0.10473489550986602</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
@@ -10284,7 +10284,7 @@
         <v>1.3344537511509309</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="3"/>
@@ -10319,7 +10319,7 @@
         <v>0.7323937598229685</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
@@ -10348,13 +10348,13 @@
         <v>437</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D75" s="1">
         <v>0.41531020908033411</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="3"/>
@@ -10389,7 +10389,7 @@
         <v>1.6450290647211425</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="3"/>
@@ -10424,7 +10424,7 @@
         <v>1.04296907339318</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="3"/>
@@ -10453,13 +10453,13 @@
         <v>446</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D78" s="1">
         <v>0.92864363645633996</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
@@ -10494,7 +10494,7 @@
         <v>2.1583624920952498</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
@@ -10529,7 +10529,7 @@
         <v>1.5563025007672873</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
@@ -10558,13 +10558,13 @@
         <v>455</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D81" s="1">
         <v>1.1504923860707554</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
@@ -10599,7 +10599,7 @@
         <v>2.3802112417116059</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
@@ -10634,7 +10634,7 @@
         <v>1.7781512503836436</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
@@ -10663,13 +10663,13 @@
         <v>464</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D84" s="1">
         <v>1.451522381734738</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="3"/>
@@ -10704,7 +10704,7 @@
         <v>2.6812412373755872</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="3"/>
@@ -10739,7 +10739,7 @@
         <v>2.0791812460476247</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
@@ -10768,13 +10768,13 @@
         <v>473</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D87" s="1">
         <v>0.37580166779671081</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
@@ -10809,7 +10809,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="3"/>
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="3"/>
@@ -10873,13 +10873,13 @@
         <v>482</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D90" s="1">
         <v>1.6556423643913893</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="3"/>
@@ -10914,7 +10914,7 @@
         <v>2.2833012287035497</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="3"/>
@@ -10949,7 +10949,7 @@
         <v>1.6812412373755872</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
@@ -10978,13 +10978,13 @@
         <v>491</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D93" s="1">
         <v>0.56546573404202194</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
@@ -11019,7 +11019,7 @@
         <v>1.9030899869919435</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
@@ -11054,7 +11054,7 @@
         <v>1.3010299956639813</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
@@ -11083,13 +11083,13 @@
         <v>500</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D96" s="1">
         <v>0.26443573837803958</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
@@ -11124,7 +11124,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
@@ -11159,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="3"/>
@@ -11188,13 +11188,13 @@
         <v>509</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D99" s="1">
         <v>1.2644357383780396</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
@@ -11229,7 +11229,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="3"/>
@@ -11264,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
@@ -11293,13 +11293,13 @@
         <v>518</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D102" s="1">
         <v>1.1839161415585691</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="3"/>
@@ -11334,7 +11334,7 @@
         <v>-0.22184874961635639</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
@@ -11369,7 +11369,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="3"/>
@@ -11398,13 +11398,13 @@
         <v>527</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D105" s="1">
         <v>1.1839161415585691</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="3"/>
@@ -11439,7 +11439,7 @@
         <v>-0.22184874961635639</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="3"/>
@@ -11474,7 +11474,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="3"/>
@@ -11503,13 +11503,13 @@
         <v>536</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D108" s="1">
         <v>0.94884702254462705</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="3"/>
@@ -11544,7 +11544,7 @@
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="3"/>
@@ -11579,7 +11579,7 @@
         <v>-0.52287874528033762</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="3"/>
@@ -11608,13 +11608,13 @@
         <v>545</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D111" s="1">
         <v>0.94884702254462705</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="3"/>
@@ -11649,7 +11649,7 @@
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="3"/>
@@ -11684,7 +11684,7 @@
         <v>-0.52287874528033762</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="3"/>
@@ -11713,13 +11713,13 @@
         <v>554</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D114" s="1">
         <v>-2.023562183190132</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="3"/>
@@ -11754,7 +11754,7 @@
         <v>-1.0969100130080565</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="3"/>
@@ -11789,7 +11789,7 @@
         <v>-1.6989700043360187</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="3"/>
@@ -11818,13 +11818,13 @@
         <v>563</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D117" s="1">
         <v>-0.72893368272351255</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="3"/>
@@ -11859,7 +11859,7 @@
         <v>-1.0969100130080565</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="3"/>
@@ -11894,7 +11894,7 @@
         <v>-1.6989700043360187</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="3"/>
@@ -11923,13 +11923,13 @@
         <v>572</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D120" s="1">
         <v>1.6688837502421359</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="3"/>
@@ -11964,7 +11964,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="3"/>
@@ -11999,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="3"/>
@@ -12028,13 +12028,13 @@
         <v>581</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D123" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="3"/>
@@ -12069,7 +12069,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="3"/>
@@ -12104,7 +12104,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="3"/>
@@ -12133,13 +12133,13 @@
         <v>590</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D126" s="1">
         <v>0.45152238173473652</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="3"/>
@@ -12174,7 +12174,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="3"/>
@@ -12209,7 +12209,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="3"/>
@@ -12238,13 +12238,13 @@
         <v>599</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D129" s="1">
         <v>5.3582373062212973E-2</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="3"/>
@@ -12279,7 +12279,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="3"/>
@@ -12314,7 +12314,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="3"/>
@@ -12343,13 +12343,13 @@
         <v>608</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D132" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" ref="F132:F162" si="5">LOG(G132,2)</f>
@@ -12384,7 +12384,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="5"/>
@@ -12419,7 +12419,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="5"/>
@@ -12444,8 +12444,8 @@
       <c r="A135" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>617</v>
+      <c r="B135" t="s">
+        <v>1211</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>224</v>
@@ -12454,7 +12454,7 @@
         <v>1.146128035678238</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F135" s="1">
         <f>LOG(G135,2)</f>
@@ -12471,25 +12471,25 @@
         <v>14</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K135"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1212</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D136" s="1">
         <v>1.9877622411489231</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F136" s="1">
         <f>LOG(G136,2)</f>
@@ -12506,16 +12506,16 @@
         <v>14</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K136"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1213</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>224</v>
@@ -12524,7 +12524,7 @@
         <v>1.7558748556724915</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="5"/>
@@ -12541,25 +12541,25 @@
         <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K137"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1214</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D138" s="1">
         <v>1.2964790654772824</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="5"/>
@@ -12576,25 +12576,25 @@
         <v>14</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K138"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D139" s="1">
         <v>0.90162804695170085</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="5"/>
@@ -12611,16 +12611,16 @@
         <v>14</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K139"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>224</v>
@@ -12629,7 +12629,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="5"/>
@@ -12646,16 +12646,16 @@
         <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K140"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>224</v>
@@ -12664,7 +12664,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="5"/>
@@ -12681,25 +12681,25 @@
         <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K141"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D142" s="1">
         <v>0.43373423038028014</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="5"/>
@@ -12716,16 +12716,16 @@
         <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K142"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>224</v>
@@ -12734,7 +12734,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="5"/>
@@ -12751,16 +12751,16 @@
         <v>14</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K143"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>224</v>
@@ -12769,7 +12769,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="5"/>
@@ -12786,25 +12786,25 @@
         <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K144"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D145" s="1">
         <v>0.43373423038028014</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="5"/>
@@ -12821,16 +12821,16 @@
         <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="K145"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>224</v>
@@ -12839,7 +12839,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="5"/>
@@ -12856,16 +12856,16 @@
         <v>14</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="K146"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>224</v>
@@ -12874,7 +12874,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="5"/>
@@ -12891,25 +12891,25 @@
         <v>14</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K147"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D148" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="5"/>
@@ -12926,16 +12926,16 @@
         <v>14</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K148"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>224</v>
@@ -12944,7 +12944,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="5"/>
@@ -12961,16 +12961,16 @@
         <v>14</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K149"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>224</v>
@@ -12979,7 +12979,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="5"/>
@@ -12996,25 +12996,25 @@
         <v>14</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K150"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D151" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="5"/>
@@ -13031,16 +13031,16 @@
         <v>14</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="K151"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>224</v>
@@ -13049,7 +13049,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="5"/>
@@ -13066,16 +13066,16 @@
         <v>14</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K152"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>224</v>
@@ -13084,7 +13084,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="5"/>
@@ -13101,25 +13101,25 @@
         <v>14</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K153"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D154" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="5"/>
@@ -13136,16 +13136,16 @@
         <v>14</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K154"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>224</v>
@@ -13154,7 +13154,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="5"/>
@@ -13171,16 +13171,16 @@
         <v>14</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K155"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>224</v>
@@ -13189,7 +13189,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="5"/>
@@ -13206,25 +13206,25 @@
         <v>14</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K156"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D157" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="5"/>
@@ -13241,16 +13241,16 @@
         <v>14</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="K157"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>224</v>
@@ -13259,7 +13259,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="5"/>
@@ -13276,16 +13276,16 @@
         <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K158"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>224</v>
@@ -13294,7 +13294,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="5"/>
@@ -13311,25 +13311,25 @@
         <v>14</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="K159"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D160" s="1">
         <v>0.25682879620936039</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="5"/>
@@ -13346,16 +13346,16 @@
         <v>14</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K160"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>224</v>
@@ -13364,7 +13364,7 @@
         <v>1.3802112417116059</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="5"/>
@@ -13381,16 +13381,16 @@
         <v>14</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K161"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>224</v>
@@ -13399,7 +13399,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="5"/>
@@ -13416,7 +13416,7 @@
         <v>14</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K162"/>
     </row>
@@ -13431,8 +13431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G103"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -13461,30 +13461,30 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D3" t="b">
         <f>TRUE()</f>
@@ -13494,21 +13494,21 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D4" t="b">
         <f>TRUE()</f>
@@ -13518,21 +13518,21 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D5" t="b">
         <f>TRUE()</f>
@@ -13542,21 +13542,21 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D6" t="b">
         <f>TRUE()</f>
@@ -13566,21 +13566,21 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D7" t="b">
         <f>TRUE()</f>
@@ -13590,21 +13590,21 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D8" t="b">
         <f>TRUE()</f>
@@ -13614,21 +13614,21 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B9" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D9" t="b">
         <f>TRUE()</f>
@@ -13638,21 +13638,21 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G9" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B10" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C10" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D10" t="b">
         <f>TRUE()</f>
@@ -13662,21 +13662,21 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G10" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D11" t="b">
         <f>TRUE()</f>
@@ -13686,21 +13686,21 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B12" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D12" t="b">
         <f>TRUE()</f>
@@ -13710,21 +13710,21 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G12" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B13" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C13" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D13" t="b">
         <f>TRUE()</f>
@@ -13734,21 +13734,21 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B14" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C14" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D14" t="b">
         <f>TRUE()</f>
@@ -13758,21 +13758,21 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G14" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C15" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D15" t="b">
         <f>FALSE()</f>
@@ -13782,21 +13782,21 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G15" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B16" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C16" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D16" t="b">
         <f>TRUE()</f>
@@ -13806,21 +13806,21 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B17" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D17" t="b">
         <f>FALSE()</f>
@@ -13830,21 +13830,21 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B18" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C18" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D18" t="b">
         <f>TRUE()</f>
@@ -13854,21 +13854,21 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G18" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B19" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C19" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D19" t="b">
         <f>FALSE()</f>
@@ -13878,21 +13878,21 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G19" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C20" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D20" t="b">
         <f>FALSE()</f>
@@ -13902,21 +13902,21 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G20" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C21" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D21" t="b">
         <f>TRUE()</f>
@@ -13926,21 +13926,21 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G21" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B22" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C22" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D22" t="b">
         <f>TRUE()</f>
@@ -13950,21 +13950,21 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G22" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B23" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C23" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D23" t="b">
         <f>FALSE()</f>
@@ -13974,21 +13974,21 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G23" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B24" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C24" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D24" t="b">
         <f>FALSE()</f>
@@ -13998,21 +13998,21 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G24" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B25" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C25" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D25" t="b">
         <f>FALSE()</f>
@@ -14022,21 +14022,21 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G25" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B26" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C26" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D26" t="b">
         <f>FALSE()</f>
@@ -14046,21 +14046,21 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G26" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B27" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C27" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D27" t="b">
         <f>TRUE()</f>
@@ -14070,21 +14070,21 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G27" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B28" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D28" t="b">
         <f>TRUE()</f>
@@ -14094,21 +14094,21 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G28" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B29" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C29" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D29" t="b">
         <f>FALSE()</f>
@@ -14118,21 +14118,21 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G29" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B30" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C30" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D30" t="b">
         <f>TRUE()</f>
@@ -14142,21 +14142,21 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B31" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C31" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D31" t="b">
         <f>TRUE()</f>
@@ -14166,21 +14166,21 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G31" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B32" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C32" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D32" t="b">
         <f>FALSE()</f>
@@ -14190,21 +14190,21 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G32" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B33" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C33" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D33" t="b">
         <f>TRUE()</f>
@@ -14214,21 +14214,21 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G33" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B34" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C34" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D34" t="b">
         <f>TRUE()</f>
@@ -14238,21 +14238,21 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G34" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B35" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C35" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D35" t="b">
         <f>TRUE()</f>
@@ -14262,21 +14262,21 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G35" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B36" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C36" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D36" t="b">
         <f>TRUE()</f>
@@ -14286,21 +14286,21 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G36" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B37" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C37" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D37" t="b">
         <f>FALSE()</f>
@@ -14310,21 +14310,21 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G37" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B38" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C38" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D38" t="b">
         <f>FALSE()</f>
@@ -14334,21 +14334,21 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G38" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B39" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C39" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D39" t="b">
         <f>TRUE()</f>
@@ -14358,21 +14358,21 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G39" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B40" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C40" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D40" t="b">
         <f>FALSE()</f>
@@ -14382,21 +14382,21 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G40" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B41" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C41" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D41" t="b">
         <f>TRUE()</f>
@@ -14406,21 +14406,21 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G41" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B42" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C42" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D42" t="b">
         <f>FALSE()</f>
@@ -14430,21 +14430,21 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G42" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B43" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C43" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D43" t="b">
         <f>TRUE()</f>
@@ -14454,21 +14454,21 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G43" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B44" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C44" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D44" t="b">
         <f>FALSE()</f>
@@ -14478,21 +14478,21 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G44" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B45" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C45" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D45" t="b">
         <f>TRUE()</f>
@@ -14502,21 +14502,21 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G45" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B46" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C46" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D46" t="b">
         <f>FALSE()</f>
@@ -14526,21 +14526,21 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G46" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B47" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C47" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D47" t="b">
         <f>TRUE()</f>
@@ -14550,21 +14550,21 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G47" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B48" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C48" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D48" t="b">
         <f>FALSE()</f>
@@ -14574,21 +14574,21 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G48" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B49" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C49" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D49" t="b">
         <f>TRUE()</f>
@@ -14598,21 +14598,21 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G49" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B50" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C50" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D50" t="b">
         <f>FALSE()</f>
@@ -14622,21 +14622,21 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G50" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B51" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C51" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D51" t="b">
         <f>TRUE()</f>
@@ -14646,21 +14646,21 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G51" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B52" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C52" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D52" t="b">
         <f>FALSE()</f>
@@ -14670,21 +14670,21 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G52" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B53" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C53" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D53" t="b">
         <f>TRUE()</f>
@@ -14694,21 +14694,21 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G53" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B54" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C54" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D54" t="b">
         <f>FALSE()</f>
@@ -14718,21 +14718,21 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G54" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B55" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C55" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D55" t="b">
         <f>TRUE()</f>
@@ -14742,21 +14742,21 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G55" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B56" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C56" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D56" t="b">
         <f>FALSE()</f>
@@ -14766,21 +14766,21 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G56" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B57" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C57" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D57" t="b">
         <f>TRUE()</f>
@@ -14790,21 +14790,21 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G57" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B58" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C58" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D58" t="b">
         <f>FALSE()</f>
@@ -14814,21 +14814,21 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G58" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B59" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C59" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D59" t="b">
         <f>TRUE()</f>
@@ -14838,21 +14838,21 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G59" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B60" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C60" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D60" t="b">
         <f>FALSE()</f>
@@ -14862,21 +14862,21 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G60" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B61" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C61" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D61" t="b">
         <f>TRUE()</f>
@@ -14886,21 +14886,21 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G61" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B62" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C62" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D62" t="b">
         <f>FALSE()</f>
@@ -14910,21 +14910,21 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G62" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B63" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C63" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D63" t="b">
         <f>TRUE()</f>
@@ -14934,21 +14934,21 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G63" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B64" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C64" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D64" t="b">
         <f>FALSE()</f>
@@ -14958,21 +14958,21 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G64" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B65" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D65" t="b">
         <f>TRUE()</f>
@@ -14982,21 +14982,21 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G65" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B66" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C66" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D66" t="b">
         <f>FALSE()</f>
@@ -15006,21 +15006,21 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G66" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B67" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C67" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D67" t="b">
         <f>TRUE()</f>
@@ -15030,21 +15030,21 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G67" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B68" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C68" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D68" t="b">
         <f>FALSE()</f>
@@ -15054,21 +15054,21 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G68" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B69" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C69" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D69" t="b">
         <f>TRUE()</f>
@@ -15078,21 +15078,21 @@
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G69" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B70" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C70" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D70" t="b">
         <f>FALSE()</f>
@@ -15102,21 +15102,21 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G70" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B71" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C71" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D71" t="b">
         <f>TRUE()</f>
@@ -15126,21 +15126,21 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G71" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B72" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C72" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D72" t="b">
         <f>FALSE()</f>
@@ -15150,21 +15150,21 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G72" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B73" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C73" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D73" t="b">
         <f>TRUE()</f>
@@ -15174,21 +15174,21 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G73" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B74" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C74" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D74" t="b">
         <f>FALSE()</f>
@@ -15198,21 +15198,21 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G74" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B75" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C75" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D75" t="b">
         <f>TRUE()</f>
@@ -15222,21 +15222,21 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G75" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B76" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C76" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D76" t="b">
         <f>FALSE()</f>
@@ -15246,21 +15246,21 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G76" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B77" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C77" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D77" t="b">
         <f>TRUE()</f>
@@ -15270,21 +15270,21 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G77" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B78" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C78" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D78" t="b">
         <f>FALSE()</f>
@@ -15294,21 +15294,21 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G78" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B79" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C79" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D79" t="b">
         <f>TRUE()</f>
@@ -15318,21 +15318,21 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G79" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B80" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C80" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D80" t="b">
         <f>FALSE()</f>
@@ -15342,21 +15342,21 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G80" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B81" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C81" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D81" t="b">
         <f>TRUE()</f>
@@ -15366,21 +15366,21 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G81" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B82" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C82" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D82" t="b">
         <f>FALSE()</f>
@@ -15390,21 +15390,21 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G82" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B83" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C83" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D83" t="b">
         <f>TRUE()</f>
@@ -15414,21 +15414,21 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G83" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B84" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C84" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D84" t="b">
         <f>FALSE()</f>
@@ -15438,21 +15438,21 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G84" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B85" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C85" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D85" t="b">
         <f>TRUE()</f>
@@ -15462,21 +15462,21 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G85" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B86" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C86" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D86" t="b">
         <f>FALSE()</f>
@@ -15486,69 +15486,69 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G86" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B87" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C87" t="s">
-        <v>1043</v>
+        <v>1215</v>
       </c>
       <c r="D87" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G87" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B88" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C88" t="s">
-        <v>1048</v>
+        <v>1216</v>
       </c>
       <c r="D88" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G88" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B89" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C89" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D89" t="b">
         <f>TRUE()</f>
@@ -15558,21 +15558,21 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G89" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B90" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C90" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D90" t="b">
         <f>FALSE()</f>
@@ -15582,21 +15582,21 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G90" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="B91" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C91" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D91" t="b">
         <f>TRUE()</f>
@@ -15606,21 +15606,21 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G91" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B92" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C92" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D92" t="b">
         <f>FALSE()</f>
@@ -15630,21 +15630,21 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G92" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B93" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C93" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D93" t="b">
         <f>TRUE()</f>
@@ -15654,21 +15654,21 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G93" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B94" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C94" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D94" t="b">
         <f>FALSE()</f>
@@ -15678,21 +15678,21 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G94" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B95" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C95" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D95" t="b">
         <f>TRUE()</f>
@@ -15702,21 +15702,21 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G95" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B96" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C96" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D96" t="b">
         <f>FALSE()</f>
@@ -15726,21 +15726,21 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G96" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B97" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C97" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D97" t="b">
         <f>TRUE()</f>
@@ -15750,21 +15750,21 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G97" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B98" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C98" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="D98" t="b">
         <f>FALSE()</f>
@@ -15774,21 +15774,21 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G98" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B99" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C99" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D99" t="b">
         <f>TRUE()</f>
@@ -15798,21 +15798,21 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G99" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B100" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C100" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D100" t="b">
         <f>FALSE()</f>
@@ -15822,21 +15822,21 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G100" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B101" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C101" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D101" t="b">
         <f>TRUE()</f>
@@ -15846,21 +15846,21 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G101" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B102" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C102" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D102" t="b">
         <f>FALSE()</f>
@@ -15870,21 +15870,21 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G102" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B103" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C103" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="D103" t="b">
         <f>TRUE()</f>
@@ -15894,21 +15894,21 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G103" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B104" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C104" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="D104" t="b">
         <f>FALSE()</f>
@@ -15918,10 +15918,10 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G104" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -15969,46 +15969,46 @@
         <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="H2" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B3" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3" si="0">_xlfn.CONCAT("SD_",A3)</f>
         <v>SD_Y0</v>
       </c>
       <c r="E3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F3" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -16018,28 +16018,28 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B4" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT("SD_",A4)</f>
         <v>SD_Y1</v>
       </c>
       <c r="E4" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F4" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G4" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -16049,7 +16049,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -16088,7 +16088,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -16099,16 +16099,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="D3" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16123,7 +16123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
@@ -16154,111 +16154,111 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K2" t="s">
         <v>1128</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>1129</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>1130</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>1131</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>1132</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>1133</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
         <v>1134</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>1135</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>1136</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>1137</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>1138</v>
       </c>
-      <c r="P2" t="s">
+      <c r="V2" t="s">
         <v>1139</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>1140</v>
       </c>
-      <c r="R2" t="s">
+      <c r="X2" t="s">
         <v>1141</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>1142</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>1143</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>1144</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
         <v>1145</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1151</v>
       </c>
       <c r="AC2" t="s">
         <v>10</v>
       </c>
       <c r="AD2" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="AE2" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="AF2" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F3" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="G3">
         <v>2.0000000000063099E-2</v>
@@ -16336,19 +16336,19 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B4" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D4" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E4" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F4" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="G4">
         <v>2.0000000000063099E-2</v>
@@ -16444,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -16452,18 +16452,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D2" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B3">
         <v>2100</v>
@@ -16477,7 +16477,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B4">
         <v>2400</v>
@@ -16491,7 +16491,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B5">
         <v>3900</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B6">
         <v>5700</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B7">
         <v>9300</v>

--- a/Viswan_2018_unnormalized.xlsx
+++ b/Viswan_2018_unnormalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Viswan_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C5C1F4-FD7B-4D7F-8302-9D59FAEB0509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449EB728-5623-4D15-B380-404C01FEF32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2220" windowWidth="28800" windowHeight="15472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="28800" windowHeight="15592" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="13" r:id="rId1"/>
@@ -3680,19 +3680,19 @@
     <t>Vmax_R85</t>
   </si>
   <si>
-    <t>Kcat_R85</t>
-  </si>
-  <si>
     <t>Vmax_R86</t>
   </si>
   <si>
-    <t>Kcat_R86</t>
-  </si>
-  <si>
-    <t>(Vmax_R85*PIP2*Ca_PLC_g/(Kcat_R85+PIP2))</t>
-  </si>
-  <si>
-    <t>(Vmax_R86*PIP2*Ca_PLC_g_p/(Kcat_R86+PIP2))</t>
+    <t>(Vmax_R86*PIP2*Ca_PLC_g_p/(Km_R86+PIP2))</t>
+  </si>
+  <si>
+    <t>(Vmax_R85*PIP2*Ca_PLC_g/(Km_R85+PIP2))</t>
+  </si>
+  <si>
+    <t>Km_R85</t>
+  </si>
+  <si>
+    <t>Km_R86</t>
   </si>
 </sst>
 </file>
@@ -7762,8 +7762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B138"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12480,7 +12480,7 @@
         <v>618</v>
       </c>
       <c r="B136" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1192</v>
@@ -12515,7 +12515,7 @@
         <v>620</v>
       </c>
       <c r="B137" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>224</v>
@@ -12550,7 +12550,7 @@
         <v>622</v>
       </c>
       <c r="B138" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1192</v>
@@ -13431,8 +13431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87:D88"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15500,7 +15500,7 @@
         <v>1038</v>
       </c>
       <c r="C87" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D87" t="b">
         <f>FALSE()</f>
@@ -15524,7 +15524,7 @@
         <v>1042</v>
       </c>
       <c r="C88" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D88" t="b">
         <f>FALSE()</f>
